--- a/Data_preparation/datasets/final_data/ALPHABET_INC_CL_A.xlsx
+++ b/Data_preparation/datasets/final_data/ALPHABET_INC_CL_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>27.5514752002093</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>27.25054931640625</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>29.03474467798217</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>26.26882171544944</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>5817000000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>377541457175</v>
@@ -891,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>26.99680391970704</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>32.64981460571289</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>35.42219363114338</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>26.80313992323004</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>5817000000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>368528353475</v>
@@ -1019,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>31.67850840614184</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>36.61694717407227</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>37.36727286981908</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>31.33984461281439</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>5817000000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>437625136904</v>
@@ -1147,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>37.84895204770889</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>37.80674362182617</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>38.19655307766485</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>34.15343974843713</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>5817000000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>535057054844</v>
@@ -1275,22 +1164,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>37.59867654451598</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>35.15155410766602</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>39.27660247423416</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>34.91915584266965</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>5817000000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>525119150244</v>
@@ -1403,22 +1292,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>35.01350745892713</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>39.29597091674805</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>39.9216527452363</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>34.71059637860652</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>5817000000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>483012203072</v>
@@ -1531,22 +1420,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>39.85263024647205</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>40.21761322021485</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>41.66264846949318</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>39.53879671665068</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>5817000000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>552609369216</v>
@@ -1659,22 +1548,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>39.75679408009914</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>40.72859191894531</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>43.05305985144016</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>39.57157480996585</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>5817000000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>546187119853</v>
@@ -1787,22 +1676,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>42.14681153922361</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>45.90936279296875</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>46.47446170968723</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>41.44415731931716</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>5817000000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>586186153231</v>
@@ -1915,22 +1804,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>46.34137550910245</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>46.951171875</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>49.9648859350205</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>45.45200942440623</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>5817000000</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>643104841237</v>
@@ -2043,22 +1932,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>48.44835115601325</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>51.29819488525391</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>52.81672088405051</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>47.76804190074551</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>5817000000</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>674670615055</v>
@@ -2171,22 +2060,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>52.29034440233525</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>58.70609283447266</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>59.48968968097881</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>52.29034440233525</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>5817000000</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>731904543727</v>
@@ -2287,22 +2176,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>51.0290464927241</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>50.58014297485352</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>54.49960877603787</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>49.37197652866953</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>5817000000</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>721120880264</v>
@@ -2415,22 +2304,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>55.3854983032786</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>60.94068145751953</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>64.12968487494881</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>54.95099514799846</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>5817000000</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>784277517692</v>
@@ -2543,22 +2432,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>60.2345616698925</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>54.15548706054688</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>60.80661640223318</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>50.01504511365445</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>5817000000</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>839738726233</v>
@@ -2671,22 +2560,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>51.00819248996493</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>55.90888977050781</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>55.99728083126573</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>50.76834587925548</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>5817000000</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>726734149270</v>
@@ -2787,22 +2676,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>58.97027330396304</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>59.5373649597168</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>64.40429834230383</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>58.74483083432825</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>5817000000</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>818157917588</v>
@@ -2915,22 +2804,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>54.67489973756347</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>60.49277496337891</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>62.9850838491221</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>54.39135579650275</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>5817000000</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>751727202882</v>
@@ -3043,22 +2932,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>60.7058067077664</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>62.50886917114258</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>64.51701814098398</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>57.75863484554971</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>5817000000</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>846736461119</v>
@@ -3171,22 +3060,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>66.95868268115149</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>71.14828491210938</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>74.51506337959323</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>66.86333959811857</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>5817000000</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>923760472316</v>
@@ -3299,22 +3188,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>55.8150324836901</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>66.87375640869141</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>67.54165041051544</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>53.38578835720912</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>5817000000</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>798592072276</v>
@@ -3427,22 +3316,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>70.47244007306874</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>73.88787841796875</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>78.80893863315268</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>70.22464507933984</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>5817000000</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>967989593045</v>
@@ -3555,22 +3444,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>73.67486378450468</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>80.25199890136719</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>83.49017093425739</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>71.17063578867412</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>5817000000</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>996847823456</v>
@@ -3683,22 +3572,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>87.39721568170974</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>90.7421417236328</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>95.94227611731162</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>84.22410116544214</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>5817000000</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>1185531741358</v>
@@ -3811,22 +3700,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>103.8959189449111</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>116.8689422607422</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>120.7362660018762</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>103.8551994266863</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>5817000000</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1390420354296</v>
@@ -3939,22 +3828,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>120.8911910109136</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>133.8036346435547</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>137.3496726115578</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>120.699019745284</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>5817000000</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>1636399248109</v>
@@ -4067,22 +3956,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>133.5265437133086</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>147.0319061279297</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>147.6317575184919</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>130.1523247071745</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>5817000000</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>1782582570942</v>
@@ -4195,22 +4084,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>144.0613768134646</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>134.3766784667969</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>145.4815893005235</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>123.6471843017847</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>5817000000</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>1922950841178</v>
@@ -4323,22 +4212,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>138.5444477205988</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>113.3278656005859</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>142.7276017833853</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>111.9642769129902</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>5817000000</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>1838392583663</v>
@@ -4451,22 +4340,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>107.1936726298365</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>115.5232238769531</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>118.8651719734249</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>103.3571346729859</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>5817000000</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>1435042441951</v>
@@ -4579,22 +4468,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>96.09720520386958</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>93.86261749267578</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>104.1019925357299</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>91.17118164756064</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>5817000000</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1247658600000</v>
@@ -4707,22 +4596,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>88.97631052391687</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>98.16294860839844</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>99.6328140358543</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>84.27871496823627</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>5817000000</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1141960890000</v>
@@ -4835,22 +4724,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>101.6886459843981</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>106.604736328125</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>108.4222029699671</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>101.2317978123801</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>5817000000</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>1328470110000</v>
@@ -4963,22 +4852,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>118.423215877887</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>131.8108825683594</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>132.8238999142001</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>114.5598625925951</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>5817000000</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>1519830900000</v>
@@ -5091,22 +4980,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>130.3112374168464</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>123.2300720214844</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>140.2526649298119</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>119.3865782259734</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>5817000000</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1650013740000</v>
@@ -5219,22 +5108,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>137.6009493970292</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>139.1403350830078</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>152.7266211780627</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>134.2242299641942</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>5817000000</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>1748360040000</v>
@@ -5347,22 +5236,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>149.6577823870935</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>161.6649627685547</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>173.5132506603971</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>148.5752524773724</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>5817000000</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>1876512690000</v>
@@ -5475,22 +5364,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>181.9848987390781</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>170.5605010986328</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>190.6551088124981</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>163.1232160954986</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>5817000000</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>2251009700000</v>
@@ -5603,22 +5492,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>166.9537217165885</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>170.3587036132812</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>181.2208044470338</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>159.0386310205387</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>5817000000</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2041613500000</v>
@@ -5731,22 +5620,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>190.0304616757511</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>203.3570251464844</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>204.8122722439576</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>186.7511594827838</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>5817000000</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>2317221300000</v>
@@ -5859,22 +5748,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>153.2971413880324</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>158.4662628173828</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>165.7509239001066</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>140.2346554932263</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>5817000000</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1885061600000</v>
@@ -5987,22 +5876,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>175.5829674872698</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>191.728515625</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>197.7731125063629</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>172.6156202045127</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>5817000000</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2138551050000</v>
